--- a/data/trans_dic/P70D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,06</t>
+          <t>0,74; 4,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,96</t>
+          <t>0,44; 2,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,44</t>
+          <t>1,13; 6,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,65</t>
+          <t>2,65; 8,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,65</t>
+          <t>2,41; 6,45</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 9,73</t>
+          <t>2,41; 9,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 16,01</t>
+          <t>5,74; 15,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,03</t>
+          <t>4,77; 10,6</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,51</t>
+          <t>4,79; 16,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 15,2</t>
+          <t>5,01; 14,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 12,64</t>
+          <t>5,84; 12,82</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,36</t>
+          <t>1,3; 6,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,62</t>
+          <t>0,77; 4,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,91</t>
+          <t>1,46; 4,81</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,97; 15,7</t>
+          <t>5,51; 15,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 18,15</t>
+          <t>7,32; 18,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,03</t>
+          <t>7,48; 14,46</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,54</t>
+          <t>0,63; 4,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,43</t>
+          <t>1,15; 4,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,64</t>
+          <t>1,16; 3,59</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,96</t>
+          <t>2,21; 6,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,37; 17,02</t>
+          <t>6,58; 16,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,39; 9,27</t>
+          <t>4,31; 9,21</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,25</t>
+          <t>3,19; 5,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,06</t>
+          <t>5,04; 8,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,1</t>
+          <t>4,35; 6,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,89</t>
+          <t>0,68; 5,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,93</t>
+          <t>0,5; 2,96</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,68</t>
+          <t>1,49; 7,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,71</t>
+          <t>2,5; 8,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,45</t>
+          <t>2,53; 6,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,56</t>
+          <t>2,29; 9,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,49</t>
+          <t>5,54; 16,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,6</t>
+          <t>5,02; 11,03</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 16,1</t>
+          <t>4,46; 14,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 14,2</t>
+          <t>5,18; 15,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,82</t>
+          <t>5,83; 12,64</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,98</t>
+          <t>1,32; 7,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,46</t>
+          <t>0,92; 4,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,81</t>
+          <t>1,53; 4,91</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 15,43</t>
+          <t>5,97; 15,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 18,19</t>
+          <t>7,35; 18,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 14,46</t>
+          <t>7,41; 15,03</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,14</t>
+          <t>0,35; 4,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,37</t>
+          <t>1,2; 4,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,59</t>
+          <t>1,16; 3,64</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,06</t>
+          <t>2,11; 5,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,58; 16,87</t>
+          <t>6,37; 17,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,21</t>
+          <t>4,39; 9,27</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,15</t>
+          <t>3,23; 5,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,26</t>
+          <t>5,03; 8,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,06</t>
+          <t>4,31; 6,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,06</t>
+          <t>0,66; 4,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,96</t>
+          <t>0,49; 3,08</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,44</t>
+          <t>1,37; 7,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,65</t>
+          <t>2,47; 8,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,65</t>
+          <t>2,48; 6,62</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 9,73</t>
+          <t>2,23; 9,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 16,01</t>
+          <t>5,5; 15,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,03</t>
+          <t>4,94; 10,81</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,51</t>
+          <t>4,42; 14,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 15,2</t>
+          <t>2,1; 11,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 12,64</t>
+          <t>3,71; 10,71</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,36</t>
+          <t>1,35; 7,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,62</t>
+          <t>0,93; 4,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,91</t>
+          <t>1,54; 4,94</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,97; 15,7</t>
+          <t>5,88; 15,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 18,15</t>
+          <t>7,34; 18,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,03</t>
+          <t>7,33; 14,93</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,54</t>
+          <t>0,47; 4,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,43</t>
+          <t>1,2; 4,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,64</t>
+          <t>1,16; 3,73</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,96</t>
+          <t>0,57; 4,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,37; 17,02</t>
+          <t>6,48; 16,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,39; 9,27</t>
+          <t>1,85; 7,38</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,25</t>
+          <t>2,38; 4,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,06</t>
+          <t>4,41; 7,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,1</t>
+          <t>3,5; 5,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,85</t>
+          <t>0,8; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,08</t>
+          <t>0,44; 2,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,24</t>
+          <t>2,17; 8,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,77</t>
+          <t>3,03; 9,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,62</t>
+          <t>2,89; 7,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,7 +657,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +667,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 9,51</t>
+          <t>2,91; 10,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 15,76</t>
+          <t>5,72; 15,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,81</t>
+          <t>5,01; 10,64</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,76</t>
+          <t>4,87; 15,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 11,59</t>
+          <t>2,27; 11,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,71</t>
+          <t>3,79; 10,47</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,36</t>
+          <t>1,39; 7,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,69</t>
+          <t>0,93; 4,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,94</t>
+          <t>1,53; 4,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,7 +807,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +817,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,93%</t>
         </is>
       </c>
     </row>
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,88; 15,5</t>
+          <t>5,99; 15,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 18,23</t>
+          <t>7,02; 18,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,93</t>
+          <t>7,93; 15,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,64</t>
+          <t>0,34; 4,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,4</t>
+          <t>1,21; 4,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,73</t>
+          <t>1,15; 3,51</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,75</t>
+          <t>0,65; 4,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,48; 16,21</t>
+          <t>6,68; 17,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,38</t>
+          <t>2,08; 7,39</t>
         </is>
       </c>
     </row>
@@ -956,17 +957,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,77</t>
+          <t>2,53; 4,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,25</t>
+          <t>4,6; 7,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,44</t>
+          <t>3,66; 5,72</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4037</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1548; 10316</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2247</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1473; 9807</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10692</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9398</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20090</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5365; 21309</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5094; 16377</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11981; 30659</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8529</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11636</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20165</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4332; 15047</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6918; 18947</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13508; 28676</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14708</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15770</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30478</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8050; 26338</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5844; 29666</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16050; 44299</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2373</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6256</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1584; 8338</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>991; 4977</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3380; 10886</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13792</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10424</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>24216</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8090; 21298</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6065; 15854</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17551; 33592</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5511</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7296</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12807</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1135; 15120</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3732; 12511</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7365; 22566</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>15751</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>26448</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>42199</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>4080; 29693</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>18177; 47074</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>18710; 66437</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>76904</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>83780</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>160684</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>49777; 96815</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>67339; 108218</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>125685; 196400</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>